--- a/aichan/539836191787316951_2021-06-24_18-00-08.xlsx
+++ b/aichan/539836191787316951_2021-06-24_18-00-08.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4784366902</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:48</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44371.75888888889</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4784359536</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:42</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44371.75881944445</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -698,10 +710,8 @@
           <t>4784359147</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:28</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44371.75865740741</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -773,10 +783,8 @@
           <t>4784366072</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:23</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44371.75859953704</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -852,10 +860,8 @@
           <t>4784361814</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:23</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44371.75859953704</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -931,10 +937,8 @@
           <t>4784361598</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:15</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44371.75850694445</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -998,10 +1002,8 @@
           <t>4784358575</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:09</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44371.7584375</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1065,10 +1067,8 @@
           <t>4784365622</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:08</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44371.75842592592</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1132,10 +1132,8 @@
           <t>4784358475</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:05</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44371.7583912037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1203,10 +1201,8 @@
           <t>4784358340</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:12:00</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44371.75833333333</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1278,10 +1274,8 @@
           <t>4784365306</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:58</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44371.75831018519</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1357,10 +1351,8 @@
           <t>4784360907</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:52</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44371.75824074074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1436,10 +1428,8 @@
           <t>4784339956</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:45</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44371.75815972222</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1503,10 +1493,8 @@
           <t>4784332991</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:33</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44371.75802083333</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1582,10 +1570,8 @@
           <t>4784354485</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:31</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44371.75799768518</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1649,10 +1635,8 @@
           <t>4784357517</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:30</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44371.75798611111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1716,10 +1700,8 @@
           <t>4784357140</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:18</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44371.75784722222</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1783,10 +1765,8 @@
           <t>4784349594</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:10</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44371.75775462963</v>
       </c>
       <c r="I19" t="n">
         <v>8</v>
@@ -1846,10 +1826,8 @@
           <t>4784349602</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:10</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44371.75775462963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1909,10 +1887,8 @@
           <t>4784349493</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:07</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44371.75771990741</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1972,10 +1948,8 @@
           <t>4784356840</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:07</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44371.75771990741</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2043,10 +2017,8 @@
           <t>4784349362</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:02</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44371.75766203704</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2118,10 +2090,8 @@
           <t>4784333422</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:11:01</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44371.75765046296</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -2197,10 +2167,8 @@
           <t>4784356599</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:59</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44371.75762731482</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2264,10 +2232,8 @@
           <t>4784353484</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:59</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44371.75762731482</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2327,10 +2293,8 @@
           <t>4784349166</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:56</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44371.75759259259</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2402,10 +2366,8 @@
           <t>4784353311</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:54</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44371.75756944445</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2477,10 +2439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:48</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44371.7575</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2552,10 +2512,8 @@
           <t>4784356256</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:46</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44371.75747685185</v>
       </c>
       <c r="I30" t="n">
         <v>2</v>
@@ -2627,10 +2585,8 @@
           <t>4784353034</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:45</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44371.75746527778</v>
       </c>
       <c r="I31" t="n">
         <v>6</v>
@@ -2698,10 +2654,8 @@
           <t>4784341911</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:45</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44371.75746527778</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2773,10 +2727,8 @@
           <t>4784316197</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:44</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44371.75745370371</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2852,10 +2804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:43</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44371.75744212963</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2919,10 +2869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:43</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44371.75744212963</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2994,10 +2942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:42</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44371.75743055555</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3074,10 +3020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:42</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44371.75743055555</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3141,10 +3085,8 @@
           <t>4784348625</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:38</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44371.75738425926</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -3208,10 +3150,8 @@
           <t>4784355982</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:37</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44371.75737268518</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -3287,10 +3227,8 @@
           <t>4784355902</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:35</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44371.75734953704</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3358,10 +3296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:33</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44371.75732638889</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3426,10 +3362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:32</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44371.75731481481</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3505,10 +3439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:30</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44371.75729166667</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3584,10 +3516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:30</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44371.75729166667</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3651,10 +3581,8 @@
           <t>4784348355</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:30</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44371.75729166667</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -3752,10 +3680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:28</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44371.75726851852</v>
       </c>
       <c r="I46" t="n">
         <v>2</v>
@@ -3820,10 +3746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:27</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44371.75725694445</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3883,10 +3807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:26</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44371.75724537037</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3947,10 +3869,8 @@
           <t>4784352402</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:25</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44371.7572337963</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4022,10 +3942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:23</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44371.75721064815</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4089,10 +4007,8 @@
           <t>4784333422</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:22</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44371.75719907408</v>
       </c>
       <c r="I51" t="n">
         <v>5</v>
@@ -4160,10 +4076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:21</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44371.7571875</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4231,10 +4145,8 @@
           <t>4784352135</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:18</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44371.75715277778</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4307,10 +4219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:16</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44371.75712962963</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4375,10 +4285,8 @@
           <t>4784352055</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:15</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44371.75711805555</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4450,10 +4358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:14</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44371.75710648148</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4525,10 +4431,8 @@
           <t>4784355298</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:14</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44371.75710648148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4602,10 +4506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:08</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44371.75703703704</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4677,10 +4579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:06</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44371.75701388889</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -4748,10 +4648,8 @@
           <t>4784351696</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:04</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44371.75699074074</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4819,10 +4717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44371.75696759259</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4898,10 +4794,8 @@
           <t>4784351554</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:10:00</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44371.75694444445</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4965,10 +4859,8 @@
           <t>4784351492</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:57</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44371.75690972222</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5044,10 +4936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:56</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44371.75689814815</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5115,10 +5005,8 @@
           <t>4784351460</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:56</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44371.75689814815</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5182,10 +5070,8 @@
           <t>4784347309</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:56</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44371.75689814815</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5245,10 +5131,8 @@
           <t>4784351387</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:54</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44371.756875</v>
       </c>
       <c r="I67" t="n">
         <v>5</v>
@@ -5312,10 +5196,8 @@
           <t>4784351367</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:53</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44371.75686342592</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5388,10 +5270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:51</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44371.75684027778</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5459,10 +5339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:47</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44371.75679398148</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5534,10 +5412,8 @@
           <t>4784325996</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:47</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44371.75679398148</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5613,10 +5489,8 @@
           <t>4784344521</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:46</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44371.75678240741</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5688,10 +5562,8 @@
           <t>4784344485</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:45</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44371.75677083333</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5769,10 +5641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:44</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44371.75675925926</v>
       </c>
       <c r="I74" t="n">
         <v>10</v>
@@ -5844,10 +5714,8 @@
           <t>4784344416</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:43</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44371.75674768518</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5924,10 +5792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:42</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44371.75673611111</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5999,10 +5865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:40</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44371.75671296296</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6074,10 +5938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:33</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44371.75663194444</v>
       </c>
       <c r="I78" t="n">
         <v>6</v>
@@ -6149,10 +6011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:32</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44371.75662037037</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6257,10 +6117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:30</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44371.75659722222</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -6324,10 +6182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:30</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44371.75659722222</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6387,10 +6243,8 @@
           <t>4784344034</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:30</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44371.75659722222</v>
       </c>
       <c r="I82" t="n">
         <v>8</v>
@@ -6466,10 +6320,8 @@
           <t>4784334730</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:30</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44371.75659722222</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6541,10 +6393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:29</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44371.75658564815</v>
       </c>
       <c r="I84" t="n">
         <v>4</v>
@@ -6620,10 +6470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:29</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44371.75658564815</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -6699,10 +6547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:27</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44371.7565625</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6767,10 +6613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:25</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44371.75653935185</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6842,10 +6686,8 @@
           <t>4784346356</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:25</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44371.75653935185</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6913,10 +6755,8 @@
           <t>4784350435</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:24</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44371.75652777778</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6988,10 +6828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:23</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44371.75651620371</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7063,10 +6901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:22</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44371.75650462963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7142,10 +6978,8 @@
           <t>4784346237</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:21</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44371.75649305555</v>
       </c>
       <c r="I92" t="n">
         <v>11</v>
@@ -7218,10 +7052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:20</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44371.75648148148</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7293,10 +7125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:19</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44371.75646990741</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7356,10 +7186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:18</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44371.75645833334</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7432,10 +7260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:18</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44371.75645833334</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7499,10 +7325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:15</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44371.75642361111</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7570,10 +7394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:15</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44371.75642361111</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7637,10 +7459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:14</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44371.75641203704</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7716,10 +7536,8 @@
           <t>4784345935</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:11</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44371.75637731481</v>
       </c>
       <c r="I100" t="n">
         <v>4</v>
@@ -7797,10 +7615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:09</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44371.75635416667</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7868,10 +7684,8 @@
           <t>4784339967</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:09</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44371.75635416667</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7939,10 +7753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:08</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44371.75634259259</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -8018,10 +7830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:08</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44371.75634259259</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8085,10 +7895,8 @@
           <t>4784339956</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:08</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44371.75634259259</v>
       </c>
       <c r="I105" t="n">
         <v>5</v>
@@ -8164,10 +7972,8 @@
           <t>4784339905</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:07</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44371.75633101852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8239,10 +8045,8 @@
           <t>4784345823</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:07</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44371.75633101852</v>
       </c>
       <c r="I107" t="n">
         <v>3</v>
@@ -8306,10 +8110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:05</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44371.75630787037</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8369,10 +8171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:04</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44371.7562962963</v>
       </c>
       <c r="I109" t="n">
         <v>6</v>
@@ -8444,10 +8244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:03</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44371.75628472222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8507,10 +8305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:01</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44371.75626157408</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8574,10 +8370,8 @@
           <t>4784343168</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:01</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44371.75626157408</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8650,10 +8444,8 @@
           <t>4784339707</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:01</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44371.75626157408</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8729,10 +8521,8 @@
           <t>4784345568</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:09:00</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44371.75625</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8800,10 +8590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:58</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44371.75622685185</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8868,10 +8656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:58</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44371.75622685185</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8947,10 +8733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:54</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44371.75618055555</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9022,10 +8806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:50</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44371.75613425926</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9093,10 +8875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:50</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44371.75613425926</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9160,10 +8940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:49</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44371.75612268518</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9227,10 +9005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:46</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44371.75608796296</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9291,10 +9067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:46</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44371.75608796296</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9370,10 +9144,8 @@
           <t>4784345144</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:46</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44371.75608796296</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9445,10 +9217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:45</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44371.75607638889</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9512,10 +9282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:43</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44371.75605324074</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9581,10 +9349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:40</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44371.75601851852</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9655,10 +9421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:40</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44371.75601851852</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9720,10 +9484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:38</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44371.75599537037</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9787,10 +9549,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:34</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44371.75594907408</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9866,10 +9626,8 @@
           <t>4784342375</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:34</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44371.75594907408</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9945,10 +9703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:33</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44371.7559375</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -10016,10 +9772,8 @@
           <t>4784334773</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:33</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44371.7559375</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10087,10 +9841,8 @@
           <t>4784334730</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:32</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44371.75592592593</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10155,10 +9907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:31</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44371.75591435185</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10235,10 +9985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:31</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44371.75591435185</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10302,10 +10050,8 @@
           <t>4784342269</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:31</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44371.75591435185</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10377,10 +10123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:30</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44371.75590277778</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10452,10 +10196,8 @@
           <t>4784318168</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:30</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44371.75590277778</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10519,10 +10261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:29</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44371.75589120371</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10594,10 +10334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:29</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44371.75589120371</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10661,10 +10399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:26</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44371.75585648148</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10724,10 +10460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:25</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44371.75584490741</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10791,10 +10525,8 @@
           <t>4784342114</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:25</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44371.75584490741</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10870,10 +10602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:23</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44371.75582175926</v>
       </c>
       <c r="I144" t="n">
         <v>3</v>
@@ -10941,10 +10671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:21</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44371.75579861111</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11020,10 +10748,8 @@
           <t>4784341911</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:19</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44371.75577546296</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11095,10 +10821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:18</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44371.75576388889</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11170,10 +10894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:15</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44371.75572916667</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11237,10 +10959,8 @@
           <t>4784338215</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:15</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44371.75572916667</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11316,10 +11036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:14</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44371.75571759259</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11391,10 +11109,8 @@
           <t>4784322245</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:13</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44371.75570601852</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11462,10 +11178,8 @@
           <t>4784338152</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:13</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44371.75570601852</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11533,10 +11247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:09</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44371.75565972222</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11604,10 +11316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:09</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44371.75565972222</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11683,10 +11393,8 @@
           <t>4784333962</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:07</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44371.75563657407</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11754,10 +11462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:06</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44371.755625</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11825,10 +11531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:02</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44371.75557870371</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11896,10 +11600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:02</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44371.75557870371</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -11967,10 +11669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:08:01</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44371.75556712963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12043,10 +11743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:59</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44371.75554398148</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12110,10 +11808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:57</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44371.75552083334</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12185,10 +11881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:56</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44371.75550925926</v>
       </c>
       <c r="I162" t="n">
         <v>2</v>
@@ -12266,10 +11960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:55</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44371.75549768518</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12333,10 +12025,8 @@
           <t>4784315056</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:51</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44371.75545138889</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12413,10 +12103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:50</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44371.75543981481</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12476,10 +12164,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:50</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44371.75543981481</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12555,10 +12241,8 @@
           <t>4784341060</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:50</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44371.75543981481</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12634,10 +12318,8 @@
           <t>4784341063</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:50</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44371.75543981481</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12713,10 +12395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:46</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44371.75539351852</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12780,10 +12460,8 @@
           <t>4784337319</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:46</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44371.75539351852</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -12861,10 +12539,8 @@
           <t>4784337312</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:46</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44371.75539351852</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12936,10 +12612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:45</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44371.75538194444</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -12999,10 +12673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:45</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44371.75538194444</v>
       </c>
       <c r="I173" t="n">
         <v>11</v>
@@ -13074,10 +12746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:44</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44371.75537037037</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13141,10 +12811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:44</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44371.75537037037</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13212,10 +12880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:44</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44371.75537037037</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13279,10 +12945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:43</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44371.7553587963</v>
       </c>
       <c r="I177" t="n">
         <v>5</v>
@@ -13342,10 +13006,8 @@
           <t>4784337199</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:42</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44371.75534722222</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13417,10 +13079,8 @@
           <t>4784322245</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:42</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44371.75534722222</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13488,10 +13148,8 @@
           <t>4784333160</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:41</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44371.75533564815</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13559,10 +13217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:39</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44371.7553125</v>
       </c>
       <c r="I181" t="n">
         <v>2</v>
@@ -13634,10 +13290,8 @@
           <t>4784337117</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:39</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44371.7553125</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13713,10 +13367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:38</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44371.75530092593</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13780,10 +13432,8 @@
           <t>4784337058</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:37</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44371.75528935185</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13851,10 +13501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:37</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44371.75528935185</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13922,10 +13570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:35</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44371.75526620371</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13989,10 +13635,8 @@
           <t>4784332991</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:35</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44371.75526620371</v>
       </c>
       <c r="I187" t="n">
         <v>16</v>
@@ -14057,10 +13701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:34</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44371.75525462963</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14124,10 +13766,8 @@
           <t>4784336914</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:33</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44371.75524305556</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14203,10 +13843,8 @@
           <t>4784332922</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:33</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44371.75524305556</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14274,10 +13912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:32</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44371.75523148148</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14337,10 +13973,8 @@
           <t>4784315056</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:31</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44371.75521990741</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14416,10 +14050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:31</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44371.75521990741</v>
       </c>
       <c r="I193" t="n">
         <v>100</v>
@@ -14490,10 +14122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:31</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44371.75521990741</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14557,10 +14187,8 @@
           <t>4784324014</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:30</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44371.75520833334</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14620,10 +14248,8 @@
           <t>4784340438</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:29</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44371.75519675926</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14700,10 +14326,8 @@
           <t>4784328695</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:28</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44371.75518518518</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14763,10 +14387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:26</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44371.75516203704</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14842,10 +14464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:26</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44371.75516203704</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14909,10 +14529,8 @@
           <t>4784332702</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:25</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44371.75515046297</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14984,10 +14602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:21</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44371.75510416667</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15063,10 +14679,8 @@
           <t>4784315056</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:20</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44371.75509259259</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15139,10 +14753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:20</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44371.75509259259</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15202,10 +14814,8 @@
           <t>4784332515</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:19</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44371.75508101852</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15281,10 +14891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:19</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44371.75508101852</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15352,10 +14960,8 @@
           <t>4784336476</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:18</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44371.75506944444</v>
       </c>
       <c r="I206" t="n">
         <v>3</v>
@@ -15423,10 +15029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:16</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44371.7550462963</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15502,10 +15106,8 @@
           <t>4784336333</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:14</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44371.75502314815</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15569,10 +15171,8 @@
           <t>4784336329</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:14</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44371.75502314815</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15644,10 +15244,8 @@
           <t>4784336345</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:14</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44371.75502314815</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15707,10 +15305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:12</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44371.755</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15774,10 +15370,8 @@
           <t>4784329902</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:11</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44371.75498842593</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15837,10 +15431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:10</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44371.75497685185</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15904,10 +15496,8 @@
           <t>4784329830</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:09</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44371.75496527777</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -15979,10 +15569,8 @@
           <t>4784329765</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:07</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44371.75494212963</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16054,10 +15642,8 @@
           <t>4784336117</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:07</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44371.75494212963</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16121,10 +15707,8 @@
           <t>4784315056</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:05</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44371.75491898148</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16200,10 +15784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:04</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44371.7549074074</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16267,10 +15849,8 @@
           <t>4784314359</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:03</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44371.75489583334</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16342,10 +15922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:07:03</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44371.75489583334</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16421,10 +15999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:59</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44371.75484953704</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16488,10 +16064,8 @@
           <t>4784335854</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:59</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44371.75484953704</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
@@ -16555,10 +16129,8 @@
           <t>4784335883</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:59</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44371.75484953704</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16634,10 +16206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:57</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44371.75482638889</v>
       </c>
       <c r="I224" t="n">
         <v>4</v>
@@ -16705,10 +16275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:56</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44371.75481481481</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16784,10 +16352,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:55</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44371.75480324074</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16859,10 +16425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:55</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44371.75480324074</v>
       </c>
       <c r="I227" t="n">
         <v>7</v>
@@ -16930,10 +16494,8 @@
           <t>4784335749</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:55</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44371.75480324074</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17005,10 +16567,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:54</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44371.75479166667</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17079,10 +16639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:54</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44371.75479166667</v>
       </c>
       <c r="I230" t="n">
         <v>4</v>
@@ -17150,10 +16708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:54</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44371.75479166667</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17229,10 +16785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:52</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44371.75476851852</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17296,10 +16850,8 @@
           <t>4784335647</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:52</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44371.75476851852</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17369,10 +16921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:51</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44371.75475694444</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17440,10 +16990,8 @@
           <t>4784329298</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:50</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44371.75474537037</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17519,10 +17067,8 @@
           <t>4784329256</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:49</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44371.7547337963</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17586,10 +17132,8 @@
           <t>4784335510</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:48</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44371.75472222222</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17657,10 +17201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:48</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44371.75472222222</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17736,10 +17278,8 @@
           <t>4784329139</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:46</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44371.75469907407</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17811,10 +17351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:45</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44371.7546875</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17886,10 +17424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:43</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44371.75466435185</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17957,10 +17493,8 @@
           <t>4784331342</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:41</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44371.7546412037</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18030,10 +17564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:40</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44371.75462962963</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18101,10 +17633,8 @@
           <t>4784328931</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:38</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44371.75460648148</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18173,10 +17703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:38</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44371.75460648148</v>
       </c>
       <c r="I245" t="n">
         <v>81</v>
@@ -18240,10 +17768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:38</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44371.75460648148</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18319,10 +17845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:37</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44371.7545949074</v>
       </c>
       <c r="I247" t="n">
         <v>7</v>
@@ -18398,10 +17922,8 @@
           <t>4784323156</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:36</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44371.75458333334</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18461,10 +17983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:36</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44371.75458333334</v>
       </c>
       <c r="I249" t="n">
         <v>30</v>
@@ -18533,10 +18053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:35</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44371.75457175926</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18605,10 +18123,8 @@
           <t>4784335099</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:34</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44371.75456018518</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18684,10 +18200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:32</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44371.75453703704</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18756,10 +18270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:31</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44371.75452546297</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18827,10 +18339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:31</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44371.75452546297</v>
       </c>
       <c r="I254" t="n">
         <v>9</v>
@@ -18898,10 +18408,8 @@
           <t>4784316197</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:29</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44371.75450231481</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18969,10 +18477,8 @@
           <t>4784324900</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:28</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44371.75449074074</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19040,10 +18546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:27</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44371.75447916667</v>
       </c>
       <c r="I257" t="n">
         <v>11</v>
@@ -19114,10 +18618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:27</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44371.75447916667</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19181,10 +18683,8 @@
           <t>4784316197</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:26</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44371.75446759259</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19253,10 +18753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:24</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44371.75444444444</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19324,10 +18822,8 @@
           <t>4784330773</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:23</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44371.75443287037</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19399,10 +18895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:23</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44371.75443287037</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19466,10 +18960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:22</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44371.7544212963</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19541,10 +19033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:22</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44371.7544212963</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19608,10 +19098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:21</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44371.75440972222</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19679,10 +19167,8 @@
           <t>4784324622</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:20</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44371.75439814815</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19750,10 +19236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:20</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44371.75439814815</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19821,10 +19305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:19</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44371.75438657407</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19892,10 +19374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:19</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44371.75438657407</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19967,10 +19447,8 @@
           <t>4784316197</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:18</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44371.754375</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20038,10 +19516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:18</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44371.754375</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20118,10 +19594,8 @@
           <t>4784324569</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:18</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44371.754375</v>
       </c>
       <c r="I272" t="n">
         <v>3</v>
@@ -20189,10 +19663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:17</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44371.75436342593</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20256,10 +19728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:15</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44371.75434027778</v>
       </c>
       <c r="I274" t="n">
         <v>4</v>
@@ -20331,10 +19801,8 @@
           <t>4784330454</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:13</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44371.75431712963</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20410,10 +19878,8 @@
           <t>4784328167</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:11</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44371.75429398148</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20485,10 +19951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:10</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44371.7542824074</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20564,10 +20028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:09</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44371.75427083333</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20635,10 +20097,8 @@
           <t>4784330318</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:08</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44371.75425925926</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20708,10 +20168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:07</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44371.75424768519</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20792,10 +20250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:06</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44371.75423611111</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20871,10 +20327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:06</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44371.75423611111</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20938,10 +20392,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:03</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44371.75420138889</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21009,10 +20461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:03</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44371.75420138889</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21076,10 +20526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:03</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44371.75420138889</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21151,10 +20599,8 @@
           <t>4784324014</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:02</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44371.75418981481</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21222,10 +20668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:02</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44371.75418981481</v>
       </c>
       <c r="I287" t="n">
         <v>10</v>
@@ -21293,10 +20737,8 @@
           <t>4784323953</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:06:00</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44371.75416666667</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21373,10 +20815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:58</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44371.75414351852</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21445,10 +20885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:58</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44371.75414351852</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21524,10 +20962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:57</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44371.75413194444</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21595,10 +21031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:57</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44371.75413194444</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21662,10 +21096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:57</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44371.75413194444</v>
       </c>
       <c r="I293" t="n">
         <v>32</v>
@@ -21729,10 +21161,8 @@
           <t>4784319914</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:55</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44371.7541087963</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21801,10 +21231,8 @@
           <t>4784315056</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:55</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44371.7541087963</v>
       </c>
       <c r="I295" t="n">
         <v>3</v>
@@ -21873,10 +21301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:55</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44371.7541087963</v>
       </c>
       <c r="I296" t="n">
         <v>63</v>
@@ -21936,10 +21362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:55</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44371.7541087963</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22003,10 +21427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:55</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44371.7541087963</v>
       </c>
       <c r="I298" t="n">
         <v>6</v>
@@ -22081,10 +21503,8 @@
           <t>4784323156</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:54</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44371.75409722222</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22148,10 +21568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:53</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44371.75408564815</v>
       </c>
       <c r="I300" t="n">
         <v>13</v>
@@ -22223,10 +21641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:53</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44371.75408564815</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22302,10 +21718,8 @@
           <t>4784327561</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:51</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44371.7540625</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22373,10 +21787,8 @@
           <t>4784323655</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:51</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44371.7540625</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22444,10 +21856,8 @@
           <t>4784301937</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:51</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44371.7540625</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22523,10 +21933,8 @@
           <t>4784316197</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:50</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44371.75405092593</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22602,10 +22010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:50</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44371.75405092593</v>
       </c>
       <c r="I306" t="n">
         <v>20</v>
@@ -22673,10 +22079,8 @@
           <t>4784323613</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:49</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44371.75403935185</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22752,10 +22156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:49</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44371.75403935185</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -22819,10 +22221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:48</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44371.75402777778</v>
       </c>
       <c r="I309" t="n">
         <v>8</v>
@@ -22890,10 +22290,8 @@
           <t>4784310022</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:46</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44371.75400462963</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22957,10 +22355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:46</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44371.75400462963</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -23025,10 +22421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:46</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44371.75400462963</v>
       </c>
       <c r="I312" t="n">
         <v>6</v>
@@ -23088,10 +22482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:44</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44371.75398148148</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23159,10 +22551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:43</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44371.7539699074</v>
       </c>
       <c r="I314" t="n">
         <v>10</v>
@@ -23234,10 +22624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:41</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44371.75394675926</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23301,10 +22689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:41</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44371.75394675926</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23380,10 +22766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:41</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44371.75394675926</v>
       </c>
       <c r="I317" t="n">
         <v>4</v>
@@ -23451,10 +22835,8 @@
           <t>4784327264</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:41</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44371.75394675926</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23522,10 +22904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:39</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44371.75392361111</v>
       </c>
       <c r="I319" t="n">
         <v>4</v>
@@ -23593,10 +22973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:39</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44371.75392361111</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23672,10 +23050,8 @@
           <t>4784327173</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:38</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44371.75391203703</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23743,10 +23119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:38</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44371.75391203703</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23818,10 +23192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:37</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44371.75390046297</v>
       </c>
       <c r="I323" t="n">
         <v>2</v>
@@ -23885,10 +23257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:36</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44371.75388888889</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -23960,10 +23330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:35</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44371.75387731481</v>
       </c>
       <c r="I325" t="n">
         <v>3</v>
@@ -24031,10 +23399,8 @@
           <t>4784323114</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:34</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44371.75386574074</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24098,10 +23464,8 @@
           <t>4784307444</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:32</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44371.7538425926</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24169,10 +23533,8 @@
           <t>4784319156</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:31</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44371.75383101852</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24248,10 +23610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:31</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44371.75383101852</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24315,10 +23675,8 @@
           <t>4784304813</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:30</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44371.75381944444</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24386,10 +23744,8 @@
           <t>4784326931</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:30</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44371.75381944444</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24453,10 +23809,8 @@
           <t>4784322961</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:30</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44371.75381944444</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24532,10 +23886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:30</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44371.75381944444</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24607,10 +23959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:30</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44371.75381944444</v>
       </c>
       <c r="I334" t="n">
         <v>20</v>
@@ -24678,10 +24028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:30</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44371.75381944444</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24753,10 +24101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:29</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44371.75380787037</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -24824,10 +24170,8 @@
           <t>4784316197</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:28</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44371.7537962963</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24891,10 +24235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:27</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44371.75378472222</v>
       </c>
       <c r="I338" t="n">
         <v>4</v>
@@ -24954,10 +24296,8 @@
           <t>4784318981</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:26</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44371.75377314815</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25025,10 +24365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:26</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44371.75377314815</v>
       </c>
       <c r="I340" t="n">
         <v>55</v>
@@ -25096,10 +24434,8 @@
           <t>4784326788</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:25</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44371.75376157407</v>
       </c>
       <c r="I341" t="n">
         <v>2</v>
@@ -25175,10 +24511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:22</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44371.75372685185</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25246,10 +24580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:22</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44371.75372685185</v>
       </c>
       <c r="I343" t="n">
         <v>16</v>
@@ -25317,10 +24649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:21</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44371.75371527778</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25393,10 +24723,8 @@
           <t>4784326652</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:20</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44371.7537037037</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25472,10 +24800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:18</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44371.75368055556</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25548,10 +24874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:17</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44371.75366898148</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25630,10 +24954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:15</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44371.75364583333</v>
       </c>
       <c r="I348" t="n">
         <v>24</v>
@@ -25709,10 +25031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:14</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44371.75363425926</v>
       </c>
       <c r="I349" t="n">
         <v>4</v>
@@ -25776,10 +25096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:13</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44371.75362268519</v>
       </c>
       <c r="I350" t="n">
         <v>12</v>
@@ -25855,10 +25173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:13</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44371.75362268519</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -25918,10 +25234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:12</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44371.75361111111</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -25993,10 +25307,8 @@
           <t>4784322370</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:11</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44371.75359953703</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26072,10 +25384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:11</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44371.75359953703</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26139,10 +25449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:11</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44371.75359953703</v>
       </c>
       <c r="I355" t="n">
         <v>7</v>
@@ -26214,10 +25522,8 @@
           <t>4784307444</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:10</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44371.75358796296</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26281,10 +25587,8 @@
           <t>4784326293</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:09</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44371.75357638889</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26361,10 +25665,8 @@
           <t>4784322303</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:09</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44371.75357638889</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26432,10 +25734,8 @@
           <t>4784322317</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:09</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44371.75357638889</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26499,10 +25799,8 @@
           <t>4784326280</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:08</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44371.75356481481</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26574,10 +25872,8 @@
           <t>4784322245</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:07</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44371.75355324074</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26649,10 +25945,8 @@
           <t>4784322238</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:07</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44371.75355324074</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26722,10 +26016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:06</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44371.75354166667</v>
       </c>
       <c r="I363" t="n">
         <v>20</v>
@@ -26797,10 +26089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:03</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44371.75350694444</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26868,10 +26158,8 @@
           <t>4784318209</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:01</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44371.7534837963</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26939,10 +26227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:01</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44371.7534837963</v>
       </c>
       <c r="I366" t="n">
         <v>16</v>
@@ -27010,10 +26296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:01</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44371.7534837963</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -27081,10 +26365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:00</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44371.75347222222</v>
       </c>
       <c r="I368" t="n">
         <v>20</v>
@@ -27156,10 +26438,8 @@
           <t>4784318175</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:05:00</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44371.75347222222</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27231,10 +26511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:59</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44371.75346064815</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27294,10 +26572,8 @@
           <t>4784325996</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:59</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44371.75346064815</v>
       </c>
       <c r="I371" t="n">
         <v>5</v>
@@ -27369,10 +26645,8 @@
           <t>4784318168</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:59</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44371.75346064815</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27450,10 +26724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:54</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44371.75340277778</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27525,10 +26797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:54</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44371.75340277778</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27611,10 +26881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:54</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44371.75340277778</v>
       </c>
       <c r="I375" t="n">
         <v>7</v>
@@ -27678,10 +26946,8 @@
           <t>4784321774</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:53</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44371.7533912037</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27756,10 +27022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:51</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44371.75336805556</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -27829,10 +27093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:51</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44371.75336805556</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27904,10 +27166,8 @@
           <t>4784317927</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:51</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44371.75336805556</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27979,10 +27239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:50</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44371.75335648148</v>
       </c>
       <c r="I380" t="n">
         <v>1</v>
@@ -28054,10 +27312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:49</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44371.75334490741</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28121,10 +27377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:48</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44371.75333333333</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28188,10 +27442,8 @@
           <t>4784321613</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:48</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44371.75333333333</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28263,10 +27515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:47</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44371.75332175926</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28338,10 +27588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:47</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44371.75332175926</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28413,10 +27661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:47</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44371.75332175926</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28480,10 +27726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:46</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44371.75331018519</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28559,10 +27803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:46</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44371.75331018519</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28638,10 +27880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:44</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44371.75328703703</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28709,10 +27949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:43</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44371.75327546296</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28788,10 +28026,8 @@
           <t>4784321430</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:43</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44371.75327546296</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28863,10 +28099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:41</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44371.75325231482</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -28942,10 +28176,8 @@
           <t>4784317586</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:41</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44371.75325231482</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29013,10 +28245,8 @@
           <t>4784317569</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:41</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44371.75325231482</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29092,10 +28322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:39</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44371.75322916666</v>
       </c>
       <c r="I395" t="n">
         <v>4</v>
@@ -29167,10 +28395,8 @@
           <t>4784321323</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:39</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44371.75322916666</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29246,10 +28472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:38</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44371.7532175926</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29317,10 +28541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:38</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44371.7532175926</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29388,10 +28610,8 @@
           <t>4784325400</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:38</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44371.7532175926</v>
       </c>
       <c r="I399" t="n">
         <v>4</v>
@@ -29459,10 +28679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:37</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44371.75320601852</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29526,10 +28744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:37</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44371.75320601852</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29602,10 +28818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:35</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44371.75318287037</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29681,10 +28895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:35</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44371.75318287037</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29748,10 +28960,8 @@
           <t>4784321180</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:35</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44371.75318287037</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29815,10 +29025,8 @@
           <t>4784317405</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:35</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44371.75318287037</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29888,10 +29096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:32</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44371.75314814815</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29964,10 +29170,8 @@
           <t>4784325224</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:32</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44371.75314814815</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30031,10 +29235,8 @@
           <t>4784317306</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:32</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44371.75314814815</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30102,10 +29304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:31</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44371.75313657407</v>
       </c>
       <c r="I409" t="n">
         <v>6</v>
@@ -30169,10 +29369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:30</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44371.753125</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30248,10 +29446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:28</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44371.75310185185</v>
       </c>
       <c r="I411" t="n">
         <v>30</v>
@@ -30311,10 +29507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:26</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44371.7530787037</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30374,10 +29568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:26</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44371.7530787037</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30441,10 +29633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:26</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44371.7530787037</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30520,10 +29710,8 @@
           <t>4784316927</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:26</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44371.7530787037</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30591,10 +29779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:25</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44371.75306712963</v>
       </c>
       <c r="I416" t="n">
         <v>3</v>
@@ -30670,10 +29856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:25</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44371.75306712963</v>
       </c>
       <c r="I417" t="n">
         <v>8</v>
@@ -30737,10 +29921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:25</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44371.75306712963</v>
       </c>
       <c r="I418" t="n">
         <v>20</v>
@@ -30812,10 +29994,8 @@
           <t>4784320875</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:25</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44371.75306712963</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30891,10 +30071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:24</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44371.75305555556</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -30962,10 +30140,8 @@
           <t>4784320822</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:24</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44371.75305555556</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31029,10 +30205,8 @@
           <t>4784314986</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:24</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44371.75305555556</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31108,10 +30282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:23</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44371.75304398148</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31179,10 +30351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:23</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44371.75304398148</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31254,10 +30424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:22</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44371.75303240741</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31325,10 +30493,8 @@
           <t>4784314926</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:22</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44371.75303240741</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31396,10 +30562,8 @@
           <t>4784316927</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:21</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44371.75302083333</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31467,10 +30631,8 @@
           <t>4784315056</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:19</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44371.75299768519</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31538,10 +30700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:17</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44371.75297453703</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31617,10 +30777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:15</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44371.75295138889</v>
       </c>
       <c r="I430" t="n">
         <v>5</v>
@@ -31692,10 +30850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:13</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44371.75292824074</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31767,10 +30923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:13</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44371.75292824074</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31846,10 +31000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:13</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44371.75292824074</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31921,10 +31073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:13</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44371.75292824074</v>
       </c>
       <c r="I434" t="n">
         <v>38</v>
@@ -32000,10 +31150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:11</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44371.7529050926</v>
       </c>
       <c r="I435" t="n">
         <v>2</v>
@@ -32071,10 +31219,8 @@
           <t>4784314621</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:11</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44371.7529050926</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32146,10 +31292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:10</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44371.75289351852</v>
       </c>
       <c r="I437" t="n">
         <v>2</v>
@@ -32226,10 +31370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:09</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44371.75288194444</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32293,10 +31435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:09</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44371.75288194444</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32364,10 +31504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:08</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44371.75287037037</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32431,10 +31569,8 @@
           <t>4784314467</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:06</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44371.75284722223</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32498,10 +31634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:04</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44371.75282407407</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32577,10 +31711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:03</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44371.7528125</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32651,10 +31783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:02</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44371.75280092593</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32726,10 +31856,8 @@
           <t>4784314353</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:02</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44371.75280092593</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32805,10 +31933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:01</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44371.75278935185</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32876,10 +32002,8 @@
           <t>4784320082</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:01</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44371.75278935185</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -32951,10 +32075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:04:00</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44371.75277777778</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33023,10 +32145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:59</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44371.7527662037</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33098,10 +32218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:56</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44371.75273148148</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33169,10 +32287,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:56</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44371.75273148148</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33240,10 +32356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:55</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44371.75271990741</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33316,10 +32430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:55</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44371.75271990741</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33391,10 +32503,8 @@
           <t>4784314077</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:53</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44371.75269675926</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33466,10 +32576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:51</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44371.75267361111</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33533,10 +32641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:49</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44371.75265046296</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33608,10 +32714,8 @@
           <t>4784315838</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:48</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44371.75263888889</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33675,10 +32779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:47</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44371.75262731482</v>
       </c>
       <c r="I458" t="n">
         <v>2</v>
@@ -33754,10 +32856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:46</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44371.75261574074</v>
       </c>
       <c r="I459" t="n">
         <v>9</v>
@@ -33829,10 +32929,8 @@
           <t>4784310022</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:46</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44371.75261574074</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33892,10 +32990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:45</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44371.75260416666</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33963,10 +33059,8 @@
           <t>4784313857</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:45</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44371.75260416666</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34034,10 +33128,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:44</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44371.75259259259</v>
       </c>
       <c r="I463" t="n">
         <v>141</v>
@@ -34113,10 +33205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:44</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44371.75259259259</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34188,10 +33278,8 @@
           <t>4784315674</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:43</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44371.75258101852</v>
       </c>
       <c r="I465" t="n">
         <v>2</v>
@@ -34259,10 +33347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:42</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44371.75256944444</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34330,10 +33416,8 @@
           <t>4784315641</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:42</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44371.75256944444</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34401,10 +33485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:40</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44371.75254629629</v>
       </c>
       <c r="I468" t="n">
         <v>15</v>
@@ -34476,10 +33558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:38</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44371.75252314815</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34547,10 +33627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:36</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44371.7525</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34614,10 +33692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:35</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44371.75248842593</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34693,10 +33769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:34</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44371.75247685185</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34760,10 +33834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:34</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44371.75247685185</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -34823,10 +33895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:33</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44371.75246527778</v>
       </c>
       <c r="I474" t="n">
         <v>3</v>
@@ -34886,10 +33956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:33</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44371.75246527778</v>
       </c>
       <c r="I475" t="n">
         <v>27</v>
@@ -34957,10 +34025,8 @@
           <t>4784315348</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:32</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44371.7524537037</v>
       </c>
       <c r="I476" t="n">
         <v>3</v>
@@ -35032,10 +34098,8 @@
           <t>4784309119</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:31</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44371.75244212963</v>
       </c>
       <c r="I477" t="n">
         <v>4</v>
@@ -35107,10 +34171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:31</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44371.75244212963</v>
       </c>
       <c r="I478" t="n">
         <v>52</v>
@@ -35174,10 +34236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:31</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44371.75244212963</v>
       </c>
       <c r="I479" t="n">
         <v>18</v>
@@ -35245,10 +34305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:27</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44371.75239583333</v>
       </c>
       <c r="I480" t="n">
         <v>32</v>
@@ -35312,10 +34370,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:27</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44371.75239583333</v>
       </c>
       <c r="I481" t="n">
         <v>48</v>
@@ -35387,10 +34443,8 @@
           <t>4784315206</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:27</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44371.75239583333</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35466,10 +34520,8 @@
           <t>4784315151</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:25</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44371.75237268519</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -35537,10 +34589,8 @@
           <t>4784315155</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:25</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44371.75237268519</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35616,10 +34666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:24</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44371.75236111111</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35687,10 +34735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:23</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44371.75234953704</v>
       </c>
       <c r="I486" t="n">
         <v>2</v>
@@ -35754,10 +34800,8 @@
           <t>4784315056</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:22</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44371.75233796296</v>
       </c>
       <c r="I487" t="n">
         <v>21</v>
@@ -35829,10 +34873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:21</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44371.75232638889</v>
       </c>
       <c r="I488" t="n">
         <v>35</v>
@@ -35908,10 +34950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:20</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44371.75231481482</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35976,10 +35016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:19</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44371.75230324074</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36051,10 +35089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:16</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44371.75226851852</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36127,10 +35163,8 @@
           <t>4784304814</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:14</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44371.75224537037</v>
       </c>
       <c r="I492" t="n">
         <v>2</v>
@@ -36198,10 +35232,8 @@
           <t>4784304813</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:14</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44371.75224537037</v>
       </c>
       <c r="I493" t="n">
         <v>2</v>
@@ -36277,10 +35309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:13</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44371.75223379629</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36344,10 +35374,8 @@
           <t>4784312915</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:13</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44371.75223379629</v>
       </c>
       <c r="I495" t="n">
         <v>2</v>
@@ -36411,10 +35439,8 @@
           <t>4784308570</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:13</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44371.75223379629</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36483,10 +35509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:12</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44371.75222222223</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36550,10 +35574,8 @@
           <t>4784312750</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:07</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44371.75216435185</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36625,10 +35647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:06</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44371.75215277778</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36692,10 +35712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:05</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44371.7521412037</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36755,10 +35773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:05</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44371.7521412037</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36827,10 +35843,8 @@
           <t>4784304511</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:04</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44371.75212962963</v>
       </c>
       <c r="I502" t="n">
         <v>3</v>
@@ -36898,10 +35912,8 @@
           <t>4784308182</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:02</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44371.75210648148</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36973,10 +35985,8 @@
           <t>4784304443</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:02</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44371.75210648148</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37044,10 +36054,8 @@
           <t>4784312582</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:02</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44371.75210648148</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37119,10 +36127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:01</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44371.75209490741</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37186,10 +36192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:03:00</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44371.75208333333</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37257,10 +36261,8 @@
           <t>4784311100</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:59</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44371.75207175926</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37332,10 +36334,8 @@
           <t>4784312458</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:58</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44371.75206018519</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37399,10 +36399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:57</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44371.75204861111</v>
       </c>
       <c r="I510" t="n">
         <v>5</v>
@@ -37470,10 +36468,8 @@
           <t>4784312382</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:55</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44371.75202546296</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37550,10 +36546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:52</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44371.75199074074</v>
       </c>
       <c r="I512" t="n">
         <v>15</v>
@@ -37617,10 +36611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:51</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44371.75197916666</v>
       </c>
       <c r="I513" t="n">
         <v>2</v>
@@ -37698,10 +36690,8 @@
           <t>4784307776</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:49</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44371.75195601852</v>
       </c>
       <c r="I514" t="n">
         <v>3</v>
@@ -37773,10 +36763,8 @@
           <t>4784307676</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:45</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44371.75190972222</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -37840,10 +36828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:44</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44371.75189814815</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37919,10 +36905,8 @@
           <t>4784303875</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:44</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44371.75189814815</v>
       </c>
       <c r="I517" t="n">
         <v>4</v>
@@ -37994,10 +36978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:43</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44371.75188657407</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38066,10 +37048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:41</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44371.75186342592</v>
       </c>
       <c r="I519" t="n">
         <v>14</v>
@@ -38129,10 +37109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:41</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44371.75186342592</v>
       </c>
       <c r="I520" t="n">
         <v>111</v>
@@ -38196,10 +37174,8 @@
           <t>4784307509</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:40</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44371.75185185186</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38275,10 +37251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:39</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44371.75184027778</v>
       </c>
       <c r="I522" t="n">
         <v>6</v>
@@ -38355,10 +37329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:38</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44371.7518287037</v>
       </c>
       <c r="I523" t="n">
         <v>2</v>
@@ -38426,10 +37398,8 @@
           <t>4784307444</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:38</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44371.7518287037</v>
       </c>
       <c r="I524" t="n">
         <v>4</v>
@@ -38497,10 +37467,8 @@
           <t>4784307421</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:38</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44371.7518287037</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38577,10 +37545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:36</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44371.75180555556</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -38656,10 +37622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:36</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44371.75180555556</v>
       </c>
       <c r="I527" t="n">
         <v>6</v>
@@ -38723,10 +37687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:36</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44371.75180555556</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38794,10 +37756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:35</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44371.75179398148</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -38865,10 +37825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:34</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44371.75178240741</v>
       </c>
       <c r="I530" t="n">
         <v>13</v>
@@ -38936,10 +37894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:33</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44371.75177083333</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39008,10 +37964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:33</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44371.75177083333</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39079,10 +38033,8 @@
           <t>4784303497</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:32</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44371.75175925926</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -39161,10 +38113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:30</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44371.75173611111</v>
       </c>
       <c r="I534" t="n">
         <v>251</v>
@@ -39236,10 +38186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:29</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44371.75172453704</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39303,10 +38251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:29</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44371.75172453704</v>
       </c>
       <c r="I536" t="n">
         <v>30</v>
@@ -39370,10 +38316,8 @@
           <t>4784311605</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:29</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44371.75172453704</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39438,10 +38382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:27</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44371.75170138889</v>
       </c>
       <c r="I538" t="n">
         <v>84</v>
@@ -39517,10 +38459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:26</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44371.75168981482</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39596,10 +38536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:26</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44371.75168981482</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39667,10 +38605,8 @@
           <t>4784311528</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:26</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44371.75168981482</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39747,10 +38683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:25</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44371.75167824074</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39818,10 +38752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:24</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44371.75166666666</v>
       </c>
       <c r="I543" t="n">
         <v>12</v>
@@ -39889,10 +38821,8 @@
           <t>4784311483</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:24</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44371.75166666666</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39964,10 +38894,8 @@
           <t>4784307016</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:24</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44371.75166666666</v>
       </c>
       <c r="I545" t="n">
         <v>3</v>
@@ -40035,10 +38963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:23</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44371.75165509259</v>
       </c>
       <c r="I546" t="n">
         <v>2</v>
@@ -40102,10 +39028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:22</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44371.75164351852</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40181,10 +39105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:22</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44371.75164351852</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40248,10 +39170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:17</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44371.75158564815</v>
       </c>
       <c r="I549" t="n">
         <v>13</v>
@@ -40319,10 +39239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:16</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44371.75157407407</v>
       </c>
       <c r="I550" t="n">
         <v>1</v>
@@ -40394,10 +39312,8 @@
           <t>4784311216</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:16</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44371.75157407407</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40469,10 +39385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:13</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44371.75153935186</v>
       </c>
       <c r="I552" t="n">
         <v>4</v>
@@ -40532,10 +39446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:13</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44371.75153935186</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40611,10 +39523,8 @@
           <t>4784311100</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:12</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44371.75152777778</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40686,10 +39596,8 @@
           <t>4784306580</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:12</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44371.75152777778</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40765,10 +39673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:11</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44371.7515162037</v>
       </c>
       <c r="I556" t="n">
         <v>20</v>
@@ -40832,10 +39738,8 @@
           <t>4784306559</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:11</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44371.7515162037</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40907,10 +39811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:10</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44371.75150462963</v>
       </c>
       <c r="I558" t="n">
         <v>10</v>
@@ -40986,10 +39888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:09</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44371.75149305556</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41061,10 +39961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:07</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44371.75146990741</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41128,10 +40026,8 @@
           <t>4784310943</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:07</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44371.75146990741</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -41195,10 +40091,8 @@
           <t>4784306381</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:06</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44371.75145833333</v>
       </c>
       <c r="I562" t="n">
         <v>6</v>
@@ -41262,10 +40156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:04</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44371.75143518519</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41341,10 +40233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:04</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44371.75143518519</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41412,10 +40302,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:03</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44371.75142361111</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41484,10 +40372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:02:01</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44371.75140046296</v>
       </c>
       <c r="I566" t="n">
         <v>66</v>
@@ -41564,10 +40450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:58</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44371.75136574074</v>
       </c>
       <c r="I567" t="n">
         <v>32</v>
@@ -41631,10 +40515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:57</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44371.75135416666</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41706,10 +40588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:57</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44371.75135416666</v>
       </c>
       <c r="I569" t="n">
         <v>2</v>
@@ -41781,10 +40661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:56</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44371.75134259259</v>
       </c>
       <c r="I570" t="n">
         <v>7</v>
@@ -41852,10 +40730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:55</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44371.75133101852</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41915,10 +40791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:53</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44371.75130787037</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -41982,10 +40856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:53</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44371.75130787037</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42057,10 +40929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:53</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44371.75130787037</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42120,10 +40990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:52</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44371.75129629629</v>
       </c>
       <c r="I575" t="n">
         <v>375</v>
@@ -42212,10 +41080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:50</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44371.75127314815</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -42306,10 +41172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:45</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44371.75121527778</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42373,10 +41237,8 @@
           <t>4784301937</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:44</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44371.7512037037</v>
       </c>
       <c r="I578" t="n">
         <v>2</v>
@@ -42452,10 +41314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:43</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44371.75119212963</v>
       </c>
       <c r="I579" t="n">
         <v>202</v>
@@ -42533,10 +41393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:41</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44371.75116898148</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42600,10 +41458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:39</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44371.75114583333</v>
       </c>
       <c r="I581" t="n">
         <v>33</v>
@@ -42675,10 +41531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:38</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44371.75113425926</v>
       </c>
       <c r="I582" t="n">
         <v>165</v>
@@ -42746,10 +41600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:37</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44371.75112268519</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -42814,10 +41666,8 @@
           <t>4784310022</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:37</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44371.75112268519</v>
       </c>
       <c r="I584" t="n">
         <v>4</v>
@@ -42881,10 +41731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:34</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44371.75108796296</v>
       </c>
       <c r="I585" t="n">
         <v>76</v>
@@ -42954,10 +41802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:34</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44371.75108796296</v>
       </c>
       <c r="I586" t="n">
         <v>10</v>
@@ -43021,10 +41867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:30</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44371.75104166667</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43084,10 +41928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:30</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44371.75104166667</v>
       </c>
       <c r="I588" t="n">
         <v>34</v>
@@ -43155,10 +41997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:30</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44371.75104166667</v>
       </c>
       <c r="I589" t="n">
         <v>200</v>
@@ -43235,10 +42075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:28</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44371.75101851852</v>
       </c>
       <c r="I590" t="n">
         <v>10</v>
@@ -43314,10 +42152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:27</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44371.75100694445</v>
       </c>
       <c r="I591" t="n">
         <v>8</v>
@@ -43381,10 +42217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:26</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44371.75099537037</v>
       </c>
       <c r="I592" t="n">
         <v>22</v>
@@ -43460,10 +42294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:25</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44371.75098379629</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43527,10 +42359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:25</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44371.75098379629</v>
       </c>
       <c r="I594" t="n">
         <v>8</v>
@@ -43594,10 +42424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:20</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44371.75092592592</v>
       </c>
       <c r="I595" t="n">
         <v>8</v>
@@ -43669,10 +42497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:19</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44371.75091435185</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43740,10 +42566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:19</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44371.75091435185</v>
       </c>
       <c r="I597" t="n">
         <v>6</v>
@@ -43815,10 +42639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:19</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44371.75091435185</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -43890,10 +42712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:18</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44371.75090277778</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -43957,10 +42777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:16</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44371.75087962963</v>
       </c>
       <c r="I600" t="n">
         <v>1</v>
@@ -44024,10 +42842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:15</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44371.75086805555</v>
       </c>
       <c r="I601" t="n">
         <v>8</v>
@@ -44104,10 +42920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:13</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44371.75084490741</v>
       </c>
       <c r="I602" t="n">
         <v>2</v>
@@ -44175,10 +42989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:13</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44371.75084490741</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44246,10 +43058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:12</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44371.75083333333</v>
       </c>
       <c r="I604" t="n">
         <v>7</v>
@@ -44321,10 +43131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:11</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44371.75082175926</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44400,10 +43208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:10</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44371.75081018519</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44463,10 +43269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:09</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44371.75079861111</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44542,10 +43346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:05</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44371.75075231482</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44617,10 +43419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:03</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44371.75072916667</v>
       </c>
       <c r="I609" t="n">
         <v>44</v>
@@ -44680,10 +43480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:02</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44371.75071759259</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44752,10 +43550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:02</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44371.75071759259</v>
       </c>
       <c r="I611" t="n">
         <v>171</v>
@@ -44823,10 +43619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:01</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44371.75070601852</v>
       </c>
       <c r="I612" t="n">
         <v>10</v>
@@ -44894,10 +43688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:01:01</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44371.75070601852</v>
       </c>
       <c r="I613" t="n">
         <v>6</v>
@@ -44961,10 +43753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:59</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44371.75068287037</v>
       </c>
       <c r="I614" t="n">
         <v>8</v>
@@ -45040,10 +43830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:59</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44371.75068287037</v>
       </c>
       <c r="I615" t="n">
         <v>1</v>
@@ -45108,10 +43896,8 @@
           <t>4784300399</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:58</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44371.75067129629</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45187,10 +43973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:57</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44371.75065972222</v>
       </c>
       <c r="I617" t="n">
         <v>9</v>
@@ -45254,10 +44038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:57</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44371.75065972222</v>
       </c>
       <c r="I618" t="n">
         <v>4</v>
@@ -45325,10 +44107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:56</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44371.75064814815</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45400,10 +44180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:56</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44371.75064814815</v>
       </c>
       <c r="I620" t="n">
         <v>81</v>
@@ -45467,10 +44245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:56</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44371.75064814815</v>
       </c>
       <c r="I621" t="n">
         <v>3</v>
@@ -45538,10 +44314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:54</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44371.750625</v>
       </c>
       <c r="I622" t="n">
         <v>6</v>
@@ -45605,10 +44379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:54</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44371.750625</v>
       </c>
       <c r="I623" t="n">
         <v>29</v>
@@ -45672,10 +44444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:53</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44371.75061342592</v>
       </c>
       <c r="I624" t="n">
         <v>29</v>
@@ -45749,10 +44519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:51</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44371.75059027778</v>
       </c>
       <c r="I625" t="n">
         <v>8</v>
@@ -45828,10 +44596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:50</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44371.7505787037</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -45907,10 +44673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:49</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44371.75056712963</v>
       </c>
       <c r="I627" t="n">
         <v>5</v>
@@ -45986,10 +44750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:49</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44371.75056712963</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46065,10 +44827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:48</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44371.75055555555</v>
       </c>
       <c r="I629" t="n">
         <v>1</v>
@@ -46144,10 +44904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:43</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44371.75049768519</v>
       </c>
       <c r="I630" t="n">
         <v>362</v>
@@ -46219,10 +44977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:42</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44371.75048611111</v>
       </c>
       <c r="I631" t="n">
         <v>3</v>
@@ -46298,10 +45054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:41</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44371.75047453704</v>
       </c>
       <c r="I632" t="n">
         <v>772</v>
@@ -46369,10 +45123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:38</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44371.75043981482</v>
       </c>
       <c r="I633" t="n">
         <v>4</v>
@@ -46448,10 +45200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:36</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44371.75041666667</v>
       </c>
       <c r="I634" t="n">
         <v>2</v>
@@ -46523,10 +45273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:36</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44371.75041666667</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -46594,10 +45342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:33</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44371.75038194445</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46665,10 +45411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:31</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44371.75035879629</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46744,10 +45488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:30</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44371.75034722222</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -46815,10 +45557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:30</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44371.75034722222</v>
       </c>
       <c r="I639" t="n">
         <v>26</v>
@@ -46878,10 +45618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:29</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44371.75033564815</v>
       </c>
       <c r="I640" t="n">
         <v>2</v>
@@ -46950,10 +45688,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:29</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44371.75033564815</v>
       </c>
       <c r="I641" t="n">
         <v>1</v>
@@ -47028,10 +45764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:28</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44371.75032407408</v>
       </c>
       <c r="I642" t="n">
         <v>73</v>
@@ -47097,10 +45831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:27</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44371.7503125</v>
       </c>
       <c r="I643" t="n">
         <v>21</v>
@@ -47168,10 +45900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:26</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44371.75030092592</v>
       </c>
       <c r="I644" t="n">
         <v>9</v>
@@ -47247,10 +45977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-06-24 18:00:18</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44371.75020833333</v>
       </c>
       <c r="I645" t="n">
         <v>38</v>
